--- a/data/CM-AM AVENIR ACTIONS EUROPE.xlsx
+++ b/data/CM-AM AVENIR ACTIONS EUROPE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t>Historique Cours</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Date d'export</t>
   </si>
   <si>
-    <t>26/04/2025</t>
+    <t>31/10/2025</t>
   </si>
   <si>
     <t>Valeur :</t>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>30/04/2025</t>
   </si>
   <si>
     <t>31/03/2025</t>
@@ -1120,8 +1138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableData_0_0" displayName="TableData_0_0" ref="A7:D276" headerRowCount="1">
-  <autoFilter ref="A7:D276"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableData_0_0" displayName="TableData_0_0" ref="A7:D282" headerRowCount="1">
+  <autoFilter ref="A7:D282"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Date de cotation"/>
     <tableColumn id="2" name="Dernier cours en EUR"/>
@@ -1134,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F283"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="80"/>
   </sheetViews>
@@ -1251,13 +1269,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="14">
-        <v>45.9304</v>
+        <v>49.4439</v>
       </c>
       <c r="C8" s="15">
-        <v>-3.59</v>
+        <v>3.61</v>
       </c>
       <c r="D8" s="16">
-        <v>2350185</v>
+        <v>2558277</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1267,13 +1285,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="14">
-        <v>47.6412</v>
+        <v>47.7196</v>
       </c>
       <c r="C9" s="15">
-        <v>2.06</v>
+        <v>-0.74</v>
       </c>
       <c r="D9" s="16">
-        <v>2331817</v>
+        <v>2563573</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1283,13 +1301,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="14">
-        <v>46.6789</v>
+        <v>48.0755</v>
       </c>
       <c r="C10" s="15">
-        <v>7.14</v>
+        <v>0.19</v>
       </c>
       <c r="D10" s="16">
-        <v>2319166</v>
+        <v>2552200</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1299,13 +1317,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="14">
-        <v>43.5692</v>
+        <v>47.9836</v>
       </c>
       <c r="C11" s="15">
-        <v>0.64</v>
+        <v>-1.04</v>
       </c>
       <c r="D11" s="16">
-        <v>2313211</v>
+        <v>2523732</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1315,13 +1333,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="14">
-        <v>43.2927</v>
+        <v>48.4886</v>
       </c>
       <c r="C12" s="15">
-        <v>0.97</v>
+        <v>5.27</v>
       </c>
       <c r="D12" s="16">
-        <v>2294987</v>
+        <v>2453397</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1331,13 +1349,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="14">
-        <v>42.8757</v>
+        <v>46.0596</v>
       </c>
       <c r="C13" s="15">
-        <v>-2.82</v>
+        <v>0.28</v>
       </c>
       <c r="D13" s="16">
-        <v>2296119</v>
+        <v>2348612</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1347,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="14">
-        <v>44.1216</v>
+        <v>45.9304</v>
       </c>
       <c r="C14" s="15">
-        <v>-0.62</v>
+        <v>-3.59</v>
       </c>
       <c r="D14" s="16">
-        <v>2299238</v>
+        <v>2350185</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1363,13 +1381,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="14">
-        <v>44.3948</v>
+        <v>47.6412</v>
       </c>
       <c r="C15" s="15">
-        <v>1.12</v>
+        <v>2.06</v>
       </c>
       <c r="D15" s="16">
-        <v>2297829</v>
+        <v>2331817</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1379,13 +1397,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="14">
-        <v>43.903</v>
+        <v>46.6789</v>
       </c>
       <c r="C16" s="15">
-        <v>0.22</v>
+        <v>7.14</v>
       </c>
       <c r="D16" s="16">
-        <v>2275440</v>
+        <v>2319166</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1395,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="14">
-        <v>43.8069</v>
+        <v>43.5692</v>
       </c>
       <c r="C17" s="15">
-        <v>-2.37</v>
+        <v>0.64</v>
       </c>
       <c r="D17" s="16">
-        <v>2254464</v>
+        <v>2313211</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1411,13 +1429,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="14">
-        <v>44.8696</v>
+        <v>43.2927</v>
       </c>
       <c r="C18" s="15">
-        <v>2.89</v>
+        <v>0.97</v>
       </c>
       <c r="D18" s="16">
-        <v>2202779</v>
+        <v>2294987</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1427,13 +1445,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="14">
-        <v>43.6093</v>
+        <v>42.8757</v>
       </c>
       <c r="C19" s="15">
-        <v>-2.48</v>
+        <v>-2.82</v>
       </c>
       <c r="D19" s="16">
-        <v>2091145</v>
+        <v>2296119</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1443,13 +1461,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="14">
-        <v>44.72</v>
+        <v>44.1216</v>
       </c>
       <c r="C20" s="15">
-        <v>3.87</v>
+        <v>-0.62</v>
       </c>
       <c r="D20" s="16">
-        <v>2099066</v>
+        <v>2299238</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1459,13 +1477,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="14">
-        <v>43.0557</v>
+        <v>44.3948</v>
       </c>
       <c r="C21" s="15">
-        <v>2.2</v>
+        <v>1.12</v>
       </c>
       <c r="D21" s="16">
-        <v>2127961</v>
+        <v>2297829</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -1475,13 +1493,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="14">
-        <v>42.1297</v>
+        <v>43.903</v>
       </c>
       <c r="C22" s="15">
-        <v>2.87</v>
+        <v>0.22</v>
       </c>
       <c r="D22" s="16">
-        <v>2124677</v>
+        <v>2275440</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1491,13 +1509,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="14">
-        <v>40.9558</v>
+        <v>43.8069</v>
       </c>
       <c r="C23" s="15">
-        <v>2.61</v>
+        <v>-2.37</v>
       </c>
       <c r="D23" s="16">
-        <v>2130540</v>
+        <v>2254464</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1507,13 +1525,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="14">
-        <v>39.9125</v>
+        <v>44.8696</v>
       </c>
       <c r="C24" s="15">
-        <v>7.7</v>
+        <v>2.89</v>
       </c>
       <c r="D24" s="16">
-        <v>2117791</v>
+        <v>2202779</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1523,13 +1541,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="14">
-        <v>37.0583</v>
+        <v>43.6093</v>
       </c>
       <c r="C25" s="15">
-        <v>-3.47</v>
+        <v>-2.48</v>
       </c>
       <c r="D25" s="16">
-        <v>2092221</v>
+        <v>2091145</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -1539,13 +1557,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="14">
-        <v>38.3891</v>
+        <v>44.72</v>
       </c>
       <c r="C26" s="15">
-        <v>-3.29</v>
+        <v>3.87</v>
       </c>
       <c r="D26" s="16">
-        <v>2095037</v>
+        <v>2099066</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -1555,13 +1573,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="14">
-        <v>39.6936</v>
+        <v>43.0557</v>
       </c>
       <c r="C27" s="15">
-        <v>-2.36</v>
+        <v>2.2</v>
       </c>
       <c r="D27" s="16">
-        <v>2097524</v>
+        <v>2127961</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -1571,13 +1589,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="14">
-        <v>40.6531</v>
+        <v>42.1297</v>
       </c>
       <c r="C28" s="15">
-        <v>1.32</v>
+        <v>2.87</v>
       </c>
       <c r="D28" s="16">
-        <v>2111768</v>
+        <v>2124677</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -1587,13 +1605,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="14">
-        <v>40.1251</v>
+        <v>40.9558</v>
       </c>
       <c r="C29" s="15">
-        <v>2.69</v>
+        <v>2.61</v>
       </c>
       <c r="D29" s="16">
-        <v>2090984</v>
+        <v>2130540</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -1603,13 +1621,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="14">
-        <v>39.0735</v>
+        <v>39.9125</v>
       </c>
       <c r="C30" s="15">
-        <v>-2.07</v>
+        <v>7.7</v>
       </c>
       <c r="D30" s="16">
-        <v>1967622</v>
+        <v>2117791</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -1619,13 +1637,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="14">
-        <v>39.8986</v>
+        <v>37.0583</v>
       </c>
       <c r="C31" s="15">
-        <v>2.35</v>
+        <v>-3.47</v>
       </c>
       <c r="D31" s="16">
-        <v>1802784</v>
+        <v>2092221</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -1635,13 +1653,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="14">
-        <v>38.9825</v>
+        <v>38.3891</v>
       </c>
       <c r="C32" s="15">
-        <v>-0.68</v>
+        <v>-3.29</v>
       </c>
       <c r="D32" s="16">
-        <v>1792400</v>
+        <v>2095037</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -1651,13 +1669,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="14">
-        <v>39.2484</v>
+        <v>39.6936</v>
       </c>
       <c r="C33" s="15">
-        <v>2</v>
+        <v>-2.36</v>
       </c>
       <c r="D33" s="16">
-        <v>1808544</v>
+        <v>2097524</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -1667,13 +1685,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="14">
-        <v>38.4787</v>
+        <v>40.6531</v>
       </c>
       <c r="C34" s="15">
-        <v>8.83</v>
+        <v>1.32</v>
       </c>
       <c r="D34" s="16">
-        <v>1795286</v>
+        <v>2111768</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -1683,13 +1701,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="14">
-        <v>35.3569</v>
+        <v>40.1251</v>
       </c>
       <c r="C35" s="15">
-        <v>-3.58</v>
+        <v>2.69</v>
       </c>
       <c r="D35" s="16">
-        <v>1803345</v>
+        <v>2090984</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -1699,13 +1717,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="14">
-        <v>36.669</v>
+        <v>39.0735</v>
       </c>
       <c r="C36" s="15">
-        <v>6.51</v>
+        <v>-2.07</v>
       </c>
       <c r="D36" s="16">
-        <v>1800758</v>
+        <v>1967622</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -1715,13 +1733,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="14">
-        <v>34.4287</v>
+        <v>39.8986</v>
       </c>
       <c r="C37" s="15">
-        <v>7.18</v>
+        <v>2.35</v>
       </c>
       <c r="D37" s="16">
-        <v>1813858</v>
+        <v>1802784</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -1731,13 +1749,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="14">
-        <v>32.1215</v>
+        <v>38.9825</v>
       </c>
       <c r="C38" s="15">
-        <v>-6.16</v>
+        <v>-0.68</v>
       </c>
       <c r="D38" s="16">
-        <v>1818015</v>
+        <v>1792400</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -1747,13 +1765,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="14">
-        <v>34.2305</v>
+        <v>39.2484</v>
       </c>
       <c r="C39" s="15">
-        <v>-5.08</v>
+        <v>2</v>
       </c>
       <c r="D39" s="16">
-        <v>1829633</v>
+        <v>1808544</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -1763,13 +1781,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="14">
-        <v>36.0614</v>
+        <v>38.4787</v>
       </c>
       <c r="C40" s="15">
-        <v>7.04</v>
+        <v>8.83</v>
       </c>
       <c r="D40" s="16">
-        <v>1814176</v>
+        <v>1795286</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -1779,13 +1797,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="14">
-        <v>33.6892</v>
+        <v>35.3569</v>
       </c>
       <c r="C41" s="15">
-        <v>-9.67</v>
+        <v>-3.58</v>
       </c>
       <c r="D41" s="16">
-        <v>1797916</v>
+        <v>1803345</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -1795,13 +1813,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="14">
-        <v>37.2973</v>
+        <v>36.669</v>
       </c>
       <c r="C42" s="15">
-        <v>0.31</v>
+        <v>6.51</v>
       </c>
       <c r="D42" s="16">
-        <v>1715895</v>
+        <v>1800758</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -1811,13 +1829,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="14">
-        <v>37.1839</v>
+        <v>34.4287</v>
       </c>
       <c r="C43" s="15">
-        <v>-2.58</v>
+        <v>7.18</v>
       </c>
       <c r="D43" s="16">
-        <v>1601386</v>
+        <v>1813858</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -1827,13 +1845,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="14">
-        <v>38.1688</v>
+        <v>32.1215</v>
       </c>
       <c r="C44" s="15">
-        <v>0.11</v>
+        <v>-6.16</v>
       </c>
       <c r="D44" s="16">
-        <v>1576512</v>
+        <v>1818015</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -1843,13 +1861,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="14">
-        <v>38.1256</v>
+        <v>34.2305</v>
       </c>
       <c r="C45" s="15">
-        <v>-6.06</v>
+        <v>-5.08</v>
       </c>
       <c r="D45" s="16">
-        <v>1584658</v>
+        <v>1829633</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -1859,13 +1877,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="14">
-        <v>40.5828</v>
+        <v>36.0614</v>
       </c>
       <c r="C46" s="15">
-        <v>-5.23</v>
+        <v>7.04</v>
       </c>
       <c r="D46" s="16">
-        <v>1624131</v>
+        <v>1814176</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -1875,13 +1893,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="14">
-        <v>42.8238</v>
+        <v>33.6892</v>
       </c>
       <c r="C47" s="15">
-        <v>5</v>
+        <v>-9.67</v>
       </c>
       <c r="D47" s="16">
-        <v>1627467</v>
+        <v>1797916</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -1891,13 +1909,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="14">
-        <v>40.7835</v>
+        <v>37.2973</v>
       </c>
       <c r="C48" s="15">
-        <v>-3.73</v>
+        <v>0.31</v>
       </c>
       <c r="D48" s="16">
-        <v>1607688</v>
+        <v>1715895</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -1907,13 +1925,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="14">
-        <v>42.3644</v>
+        <v>37.1839</v>
       </c>
       <c r="C49" s="15">
-        <v>3.67</v>
+        <v>-2.58</v>
       </c>
       <c r="D49" s="16">
-        <v>1632827</v>
+        <v>1601386</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -1923,13 +1941,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="14">
-        <v>40.8663</v>
+        <v>38.1688</v>
       </c>
       <c r="C50" s="15">
-        <v>-3.46</v>
+        <v>0.11</v>
       </c>
       <c r="D50" s="16">
-        <v>1653573</v>
+        <v>1576512</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -1939,13 +1957,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="14">
-        <v>42.3318</v>
+        <v>38.1256</v>
       </c>
       <c r="C51" s="15">
-        <v>3.81</v>
+        <v>-6.06</v>
       </c>
       <c r="D51" s="16">
-        <v>1648900</v>
+        <v>1584658</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -1955,13 +1973,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="14">
-        <v>40.7797</v>
+        <v>40.5828</v>
       </c>
       <c r="C52" s="15">
-        <v>0.86</v>
+        <v>-5.23</v>
       </c>
       <c r="D52" s="16">
-        <v>1645381</v>
+        <v>1624131</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -1971,13 +1989,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="14">
-        <v>40.4303</v>
+        <v>42.8238</v>
       </c>
       <c r="C53" s="15">
-        <v>1.38</v>
+        <v>5</v>
       </c>
       <c r="D53" s="16">
-        <v>1683263</v>
+        <v>1627467</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -1987,13 +2005,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="14">
-        <v>39.8815</v>
+        <v>40.7835</v>
       </c>
       <c r="C54" s="15">
-        <v>2.25</v>
+        <v>-3.73</v>
       </c>
       <c r="D54" s="16">
-        <v>1608369</v>
+        <v>1607688</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -2003,13 +2021,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="14">
-        <v>39.0034</v>
+        <v>42.3644</v>
       </c>
       <c r="C55" s="15">
-        <v>1.52</v>
+        <v>3.67</v>
       </c>
       <c r="D55" s="16">
-        <v>1545916</v>
+        <v>1632827</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -2019,13 +2037,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="14">
-        <v>38.4202</v>
+        <v>40.8663</v>
       </c>
       <c r="C56" s="15">
-        <v>7.4</v>
+        <v>-3.46</v>
       </c>
       <c r="D56" s="16">
-        <v>1532094</v>
+        <v>1653573</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -2035,13 +2053,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="14">
-        <v>35.7734</v>
+        <v>42.3318</v>
       </c>
       <c r="C57" s="15">
-        <v>2.78</v>
+        <v>3.81</v>
       </c>
       <c r="D57" s="16">
-        <v>1518231</v>
+        <v>1648900</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -2051,13 +2069,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="14">
-        <v>34.8062</v>
+        <v>40.7797</v>
       </c>
       <c r="C58" s="15">
-        <v>-1.53</v>
+        <v>0.86</v>
       </c>
       <c r="D58" s="16">
-        <v>1511323</v>
+        <v>1645381</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -2067,13 +2085,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="14">
-        <v>35.3482</v>
+        <v>40.4303</v>
       </c>
       <c r="C59" s="15">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="D59" s="16">
-        <v>1518729</v>
+        <v>1683263</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -2083,13 +2101,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="14">
-        <v>34.7636</v>
+        <v>39.8815</v>
       </c>
       <c r="C60" s="15">
-        <v>17.87</v>
+        <v>2.25</v>
       </c>
       <c r="D60" s="16">
-        <v>1523144</v>
+        <v>1608369</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -2099,13 +2117,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="14">
-        <v>29.4935</v>
+        <v>39.0034</v>
       </c>
       <c r="C61" s="15">
-        <v>-7.24</v>
+        <v>1.52</v>
       </c>
       <c r="D61" s="16">
-        <v>1517603</v>
+        <v>1545916</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -2115,13 +2133,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="14">
-        <v>31.797</v>
+        <v>38.4202</v>
       </c>
       <c r="C62" s="15">
-        <v>-2.52</v>
+        <v>7.4</v>
       </c>
       <c r="D62" s="16">
-        <v>1551753</v>
+        <v>1532094</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -2131,13 +2149,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="14">
-        <v>32.6196</v>
+        <v>35.7734</v>
       </c>
       <c r="C63" s="15">
-        <v>2.87</v>
+        <v>2.78</v>
       </c>
       <c r="D63" s="16">
-        <v>1552865</v>
+        <v>1518231</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -2147,13 +2165,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="14">
-        <v>31.7093</v>
+        <v>34.8062</v>
       </c>
       <c r="C64" s="15">
-        <v>-0.42</v>
+        <v>-1.53</v>
       </c>
       <c r="D64" s="16">
-        <v>1554666</v>
+        <v>1511323</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -2163,13 +2181,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="14">
-        <v>31.8444</v>
+        <v>35.3482</v>
       </c>
       <c r="C65" s="15">
-        <v>4.35</v>
+        <v>1.68</v>
       </c>
       <c r="D65" s="16">
-        <v>1535668</v>
+        <v>1518729</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -2179,13 +2197,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="14">
-        <v>30.5167</v>
+        <v>34.7636</v>
       </c>
       <c r="C66" s="15">
-        <v>4.8</v>
+        <v>17.87</v>
       </c>
       <c r="D66" s="16">
-        <v>1476439</v>
+        <v>1523144</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -2195,13 +2213,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="14">
-        <v>29.1187</v>
+        <v>29.4935</v>
       </c>
       <c r="C67" s="15">
-        <v>5.04</v>
+        <v>-7.24</v>
       </c>
       <c r="D67" s="16">
-        <v>1406476</v>
+        <v>1517603</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -2211,13 +2229,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="14">
-        <v>27.722</v>
+        <v>31.797</v>
       </c>
       <c r="C68" s="15">
-        <v>-16.9</v>
+        <v>-2.52</v>
       </c>
       <c r="D68" s="16">
-        <v>1367331</v>
+        <v>1551753</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -2227,13 +2245,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="14">
-        <v>33.3613</v>
+        <v>32.6196</v>
       </c>
       <c r="C69" s="15">
-        <v>-7.83</v>
+        <v>2.87</v>
       </c>
       <c r="D69" s="16">
-        <v>1376943</v>
+        <v>1552865</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -2243,13 +2261,13 @@
         <v>75</v>
       </c>
       <c r="B70" s="14">
-        <v>36.194</v>
+        <v>31.7093</v>
       </c>
       <c r="C70" s="15">
-        <v>-1.71</v>
+        <v>-0.42</v>
       </c>
       <c r="D70" s="16">
-        <v>1381069</v>
+        <v>1554666</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -2259,13 +2277,13 @@
         <v>76</v>
       </c>
       <c r="B71" s="14">
-        <v>36.8245</v>
+        <v>31.8444</v>
       </c>
       <c r="C71" s="15">
-        <v>0.74</v>
+        <v>4.35</v>
       </c>
       <c r="D71" s="16">
-        <v>1372096</v>
+        <v>1535668</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -2275,13 +2293,13 @@
         <v>77</v>
       </c>
       <c r="B72" s="14">
-        <v>36.555</v>
+        <v>30.5167</v>
       </c>
       <c r="C72" s="15">
-        <v>2.64</v>
+        <v>4.8</v>
       </c>
       <c r="D72" s="16">
-        <v>1360047</v>
+        <v>1476439</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -2291,13 +2309,13 @@
         <v>78</v>
       </c>
       <c r="B73" s="14">
-        <v>35.6152</v>
+        <v>29.1187</v>
       </c>
       <c r="C73" s="15">
-        <v>1.22</v>
+        <v>5.04</v>
       </c>
       <c r="D73" s="16">
-        <v>1359802</v>
+        <v>1406476</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -2307,13 +2325,13 @@
         <v>79</v>
       </c>
       <c r="B74" s="14">
-        <v>35.1845</v>
+        <v>27.722</v>
       </c>
       <c r="C74" s="15">
-        <v>4.03</v>
+        <v>-16.9</v>
       </c>
       <c r="D74" s="16">
-        <v>1359124</v>
+        <v>1367331</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -2323,13 +2341,13 @@
         <v>80</v>
       </c>
       <c r="B75" s="14">
-        <v>33.8228</v>
+        <v>33.3613</v>
       </c>
       <c r="C75" s="15">
-        <v>-1.37</v>
+        <v>-7.83</v>
       </c>
       <c r="D75" s="16">
-        <v>1364215</v>
+        <v>1376943</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -2339,13 +2357,13 @@
         <v>81</v>
       </c>
       <c r="B76" s="14">
-        <v>34.2941</v>
+        <v>36.194</v>
       </c>
       <c r="C76" s="15">
-        <v>0.62</v>
+        <v>-1.71</v>
       </c>
       <c r="D76" s="16">
-        <v>1363314</v>
+        <v>1381069</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -2355,13 +2373,13 @@
         <v>82</v>
       </c>
       <c r="B77" s="14">
-        <v>34.0822</v>
+        <v>36.8245</v>
       </c>
       <c r="C77" s="15">
-        <v>5.64</v>
+        <v>0.74</v>
       </c>
       <c r="D77" s="16">
-        <v>1358085</v>
+        <v>1372096</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -2371,13 +2389,13 @@
         <v>83</v>
       </c>
       <c r="B78" s="14">
-        <v>32.2642</v>
+        <v>36.555</v>
       </c>
       <c r="C78" s="15">
-        <v>-5.34</v>
+        <v>2.64</v>
       </c>
       <c r="D78" s="16">
-        <v>1318570</v>
+        <v>1360047</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -2387,13 +2405,13 @@
         <v>84</v>
       </c>
       <c r="B79" s="14">
-        <v>34.0853</v>
+        <v>35.6152</v>
       </c>
       <c r="C79" s="15">
-        <v>5.83</v>
+        <v>1.22</v>
       </c>
       <c r="D79" s="16">
-        <v>1247878</v>
+        <v>1359802</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -2403,13 +2421,13 @@
         <v>85</v>
       </c>
       <c r="B80" s="14">
-        <v>32.2092</v>
+        <v>35.1845</v>
       </c>
       <c r="C80" s="15">
-        <v>1.75</v>
+        <v>4.03</v>
       </c>
       <c r="D80" s="16">
-        <v>1242129</v>
+        <v>1359124</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -2419,13 +2437,13 @@
         <v>86</v>
       </c>
       <c r="B81" s="14">
-        <v>31.6539</v>
+        <v>33.8228</v>
       </c>
       <c r="C81" s="15">
-        <v>3.81</v>
+        <v>-1.37</v>
       </c>
       <c r="D81" s="16">
-        <v>1247658</v>
+        <v>1364215</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -2435,13 +2453,13 @@
         <v>87</v>
       </c>
       <c r="B82" s="14">
-        <v>30.4909</v>
+        <v>34.2941</v>
       </c>
       <c r="C82" s="15">
-        <v>5.47</v>
+        <v>0.62</v>
       </c>
       <c r="D82" s="16">
-        <v>1250542</v>
+        <v>1363314</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -2451,13 +2469,13 @@
         <v>88</v>
       </c>
       <c r="B83" s="14">
-        <v>28.9094</v>
+        <v>34.0822</v>
       </c>
       <c r="C83" s="15">
-        <v>-6.12</v>
+        <v>5.64</v>
       </c>
       <c r="D83" s="16">
-        <v>1246690</v>
+        <v>1358085</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -2467,13 +2485,13 @@
         <v>89</v>
       </c>
       <c r="B84" s="14">
-        <v>30.7948</v>
+        <v>32.2642</v>
       </c>
       <c r="C84" s="15">
-        <v>-1.11</v>
+        <v>-5.34</v>
       </c>
       <c r="D84" s="16">
-        <v>1255776</v>
+        <v>1318570</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -2483,13 +2501,13 @@
         <v>90</v>
       </c>
       <c r="B85" s="14">
-        <v>31.1395</v>
+        <v>34.0853</v>
       </c>
       <c r="C85" s="15">
-        <v>-6.15</v>
+        <v>5.83</v>
       </c>
       <c r="D85" s="16">
-        <v>1250671</v>
+        <v>1247878</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -2499,13 +2517,13 @@
         <v>91</v>
       </c>
       <c r="B86" s="14">
-        <v>33.1805</v>
+        <v>32.2092</v>
       </c>
       <c r="C86" s="15">
-        <v>0.26</v>
+        <v>1.75</v>
       </c>
       <c r="D86" s="16">
-        <v>1249993</v>
+        <v>1242129</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -2515,13 +2533,13 @@
         <v>92</v>
       </c>
       <c r="B87" s="14">
-        <v>33.095</v>
+        <v>31.6539</v>
       </c>
       <c r="C87" s="15">
-        <v>-3.77</v>
+        <v>3.81</v>
       </c>
       <c r="D87" s="16">
-        <v>1246111</v>
+        <v>1247658</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -2531,13 +2549,13 @@
         <v>93</v>
       </c>
       <c r="B88" s="14">
-        <v>34.3921</v>
+        <v>30.4909</v>
       </c>
       <c r="C88" s="15">
-        <v>3.77</v>
+        <v>5.47</v>
       </c>
       <c r="D88" s="16">
-        <v>1239730</v>
+        <v>1250542</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -2547,13 +2565,13 @@
         <v>94</v>
       </c>
       <c r="B89" s="14">
-        <v>33.1422</v>
+        <v>28.9094</v>
       </c>
       <c r="C89" s="15">
-        <v>-0.91</v>
+        <v>-6.12</v>
       </c>
       <c r="D89" s="16">
-        <v>1234410</v>
+        <v>1246690</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -2563,13 +2581,13 @@
         <v>95</v>
       </c>
       <c r="B90" s="14">
-        <v>33.4463</v>
+        <v>30.7948</v>
       </c>
       <c r="C90" s="15">
-        <v>-1.93</v>
+        <v>-1.11</v>
       </c>
       <c r="D90" s="16">
-        <v>1211788</v>
+        <v>1255776</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -2579,13 +2597,13 @@
         <v>96</v>
       </c>
       <c r="B91" s="14">
-        <v>34.1034</v>
+        <v>31.1395</v>
       </c>
       <c r="C91" s="15">
-        <v>5.34</v>
+        <v>-6.15</v>
       </c>
       <c r="D91" s="16">
-        <v>1134888</v>
+        <v>1250671</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
@@ -2595,13 +2613,13 @@
         <v>97</v>
       </c>
       <c r="B92" s="14">
-        <v>32.3754</v>
+        <v>33.1805</v>
       </c>
       <c r="C92" s="15">
-        <v>-2.08</v>
+        <v>0.26</v>
       </c>
       <c r="D92" s="16">
-        <v>1121769</v>
+        <v>1249993</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -2611,13 +2629,13 @@
         <v>98</v>
       </c>
       <c r="B93" s="14">
-        <v>33.0628</v>
+        <v>33.095</v>
       </c>
       <c r="C93" s="15">
-        <v>-3.88</v>
+        <v>-3.77</v>
       </c>
       <c r="D93" s="16">
-        <v>1115492</v>
+        <v>1246111</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -2627,13 +2645,13 @@
         <v>99</v>
       </c>
       <c r="B94" s="14">
-        <v>34.3974</v>
+        <v>34.3921</v>
       </c>
       <c r="C94" s="15">
-        <v>2.98</v>
+        <v>3.77</v>
       </c>
       <c r="D94" s="16">
-        <v>1090912</v>
+        <v>1239730</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -2643,13 +2661,13 @@
         <v>100</v>
       </c>
       <c r="B95" s="14">
-        <v>33.401</v>
+        <v>33.1422</v>
       </c>
       <c r="C95" s="15">
-        <v>-1.46</v>
+        <v>-0.91</v>
       </c>
       <c r="D95" s="16">
-        <v>1073843</v>
+        <v>1234410</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -2659,13 +2677,13 @@
         <v>101</v>
       </c>
       <c r="B96" s="14">
-        <v>33.8944</v>
+        <v>33.4463</v>
       </c>
       <c r="C96" s="15">
-        <v>-2.74</v>
+        <v>-1.93</v>
       </c>
       <c r="D96" s="16">
-        <v>1079893</v>
+        <v>1211788</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -2675,13 +2693,13 @@
         <v>102</v>
       </c>
       <c r="B97" s="14">
-        <v>34.8494</v>
+        <v>34.1034</v>
       </c>
       <c r="C97" s="15">
-        <v>1.97</v>
+        <v>5.34</v>
       </c>
       <c r="D97" s="16">
-        <v>1068231</v>
+        <v>1134888</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -2691,13 +2709,13 @@
         <v>103</v>
       </c>
       <c r="B98" s="14">
-        <v>34.1751</v>
+        <v>32.3754</v>
       </c>
       <c r="C98" s="15">
-        <v>4.8</v>
+        <v>-2.08</v>
       </c>
       <c r="D98" s="16">
-        <v>1077581</v>
+        <v>1121769</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -2707,13 +2725,13 @@
         <v>104</v>
       </c>
       <c r="B99" s="14">
-        <v>32.6089</v>
+        <v>33.0628</v>
       </c>
       <c r="C99" s="15">
-        <v>-0.97</v>
+        <v>-3.88</v>
       </c>
       <c r="D99" s="16">
-        <v>1077564</v>
+        <v>1115492</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -2723,13 +2741,13 @@
         <v>105</v>
       </c>
       <c r="B100" s="14">
-        <v>32.9284</v>
+        <v>34.3974</v>
       </c>
       <c r="C100" s="15">
-        <v>0.46</v>
+        <v>2.98</v>
       </c>
       <c r="D100" s="16">
-        <v>1071169</v>
+        <v>1090912</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -2739,13 +2757,13 @@
         <v>106</v>
       </c>
       <c r="B101" s="14">
-        <v>32.7793</v>
+        <v>33.401</v>
       </c>
       <c r="C101" s="15">
-        <v>-2.94</v>
+        <v>-1.46</v>
       </c>
       <c r="D101" s="16">
-        <v>1058186</v>
+        <v>1073843</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -2755,13 +2773,13 @@
         <v>107</v>
       </c>
       <c r="B102" s="14">
-        <v>33.7708</v>
+        <v>33.8944</v>
       </c>
       <c r="C102" s="15">
-        <v>1.45</v>
+        <v>-2.74</v>
       </c>
       <c r="D102" s="16">
-        <v>1027498</v>
+        <v>1079893</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -2771,13 +2789,13 @@
         <v>108</v>
       </c>
       <c r="B103" s="14">
-        <v>33.2885</v>
+        <v>34.8494</v>
       </c>
       <c r="C103" s="15">
-        <v>2.27</v>
+        <v>1.97</v>
       </c>
       <c r="D103" s="16">
-        <v>925573</v>
+        <v>1068231</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -2787,13 +2805,13 @@
         <v>109</v>
       </c>
       <c r="B104" s="14">
-        <v>32.5511</v>
+        <v>34.1751</v>
       </c>
       <c r="C104" s="15">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D104" s="16">
-        <v>933796</v>
+        <v>1077581</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -2803,13 +2821,13 @@
         <v>110</v>
       </c>
       <c r="B105" s="14">
-        <v>31.0013</v>
+        <v>32.6089</v>
       </c>
       <c r="C105" s="15">
-        <v>2.39</v>
+        <v>-0.97</v>
       </c>
       <c r="D105" s="16">
-        <v>923300</v>
+        <v>1077564</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -2819,13 +2837,13 @@
         <v>111</v>
       </c>
       <c r="B106" s="14">
-        <v>30.2772</v>
+        <v>32.9284</v>
       </c>
       <c r="C106" s="15">
-        <v>-1.91</v>
+        <v>0.46</v>
       </c>
       <c r="D106" s="16">
-        <v>917495</v>
+        <v>1071169</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -2835,13 +2853,13 @@
         <v>112</v>
       </c>
       <c r="B107" s="14">
-        <v>30.8668</v>
+        <v>32.7793</v>
       </c>
       <c r="C107" s="15">
-        <v>7.03</v>
+        <v>-2.94</v>
       </c>
       <c r="D107" s="16">
-        <v>914733</v>
+        <v>1058186</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -2851,13 +2869,13 @@
         <v>113</v>
       </c>
       <c r="B108" s="14">
-        <v>28.8391</v>
+        <v>33.7708</v>
       </c>
       <c r="C108" s="15">
-        <v>-0.41</v>
+        <v>1.45</v>
       </c>
       <c r="D108" s="16">
-        <v>903600</v>
+        <v>1027498</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -2867,13 +2885,13 @@
         <v>114</v>
       </c>
       <c r="B109" s="14">
-        <v>28.9583</v>
+        <v>33.2885</v>
       </c>
       <c r="C109" s="15">
-        <v>1.46</v>
+        <v>2.27</v>
       </c>
       <c r="D109" s="16">
-        <v>900939</v>
+        <v>925573</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -2883,13 +2901,13 @@
         <v>115</v>
       </c>
       <c r="B110" s="14">
-        <v>28.5404</v>
+        <v>32.5511</v>
       </c>
       <c r="C110" s="15">
-        <v>-0.44</v>
+        <v>5</v>
       </c>
       <c r="D110" s="16">
-        <v>907183</v>
+        <v>933796</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -2899,13 +2917,13 @@
         <v>116</v>
       </c>
       <c r="B111" s="14">
-        <v>28.6674</v>
+        <v>31.0013</v>
       </c>
       <c r="C111" s="15">
-        <v>0.75</v>
+        <v>2.39</v>
       </c>
       <c r="D111" s="16">
-        <v>906602</v>
+        <v>923300</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -2915,13 +2933,13 @@
         <v>117</v>
       </c>
       <c r="B112" s="14">
-        <v>28.4553</v>
+        <v>30.2772</v>
       </c>
       <c r="C112" s="15">
-        <v>4.59</v>
+        <v>-1.91</v>
       </c>
       <c r="D112" s="16">
-        <v>901128</v>
+        <v>917495</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -2931,13 +2949,13 @@
         <v>118</v>
       </c>
       <c r="B113" s="14">
-        <v>27.2063</v>
+        <v>30.8668</v>
       </c>
       <c r="C113" s="15">
-        <v>-6.02</v>
+        <v>7.03</v>
       </c>
       <c r="D113" s="16">
-        <v>894516</v>
+        <v>914733</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -2947,13 +2965,13 @@
         <v>119</v>
       </c>
       <c r="B114" s="14">
-        <v>28.9488</v>
+        <v>28.8391</v>
       </c>
       <c r="C114" s="15">
-        <v>2.6</v>
+        <v>-0.41</v>
       </c>
       <c r="D114" s="16">
-        <v>884767</v>
+        <v>903600</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
@@ -2963,13 +2981,13 @@
         <v>120</v>
       </c>
       <c r="B115" s="14">
-        <v>28.2163</v>
+        <v>28.9583</v>
       </c>
       <c r="C115" s="15">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
       <c r="D115" s="16">
-        <v>845337</v>
+        <v>900939</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -2979,13 +2997,13 @@
         <v>121</v>
       </c>
       <c r="B116" s="14">
-        <v>27.8843</v>
+        <v>28.5404</v>
       </c>
       <c r="C116" s="15">
-        <v>2.3</v>
+        <v>-0.44</v>
       </c>
       <c r="D116" s="16">
-        <v>838889</v>
+        <v>907183</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -2995,13 +3013,13 @@
         <v>122</v>
       </c>
       <c r="B117" s="14">
-        <v>27.2569</v>
+        <v>28.6674</v>
       </c>
       <c r="C117" s="15">
-        <v>-2.88</v>
+        <v>0.75</v>
       </c>
       <c r="D117" s="16">
-        <v>838320</v>
+        <v>906602</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -3011,13 +3029,13 @@
         <v>123</v>
       </c>
       <c r="B118" s="14">
-        <v>28.0655</v>
+        <v>28.4553</v>
       </c>
       <c r="C118" s="15">
-        <v>-6.67</v>
+        <v>4.59</v>
       </c>
       <c r="D118" s="16">
-        <v>837540</v>
+        <v>901128</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
@@ -3027,13 +3045,13 @@
         <v>124</v>
       </c>
       <c r="B119" s="14">
-        <v>30.0698</v>
+        <v>27.2063</v>
       </c>
       <c r="C119" s="15">
-        <v>-6.24</v>
+        <v>-6.02</v>
       </c>
       <c r="D119" s="16">
-        <v>828613</v>
+        <v>894516</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -3043,13 +3061,13 @@
         <v>125</v>
       </c>
       <c r="B120" s="14">
-        <v>32.0708</v>
+        <v>28.9488</v>
       </c>
       <c r="C120" s="15">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D120" s="16">
-        <v>811874</v>
+        <v>884767</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
@@ -3059,13 +3077,13 @@
         <v>126</v>
       </c>
       <c r="B121" s="14">
-        <v>31.2293</v>
+        <v>28.2163</v>
       </c>
       <c r="C121" s="15">
-        <v>9.66</v>
+        <v>1.19</v>
       </c>
       <c r="D121" s="16">
-        <v>823608</v>
+        <v>845337</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
@@ -3075,13 +3093,13 @@
         <v>127</v>
       </c>
       <c r="B122" s="14">
-        <v>28.4788</v>
+        <v>27.8843</v>
       </c>
       <c r="C122" s="15">
-        <v>-5.38</v>
+        <v>2.3</v>
       </c>
       <c r="D122" s="16">
-        <v>805856</v>
+        <v>838889</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -3091,13 +3109,13 @@
         <v>128</v>
       </c>
       <c r="B123" s="14">
-        <v>30.0977</v>
+        <v>27.2569</v>
       </c>
       <c r="C123" s="15">
-        <v>-8.25</v>
+        <v>-2.88</v>
       </c>
       <c r="D123" s="16">
-        <v>800254</v>
+        <v>838320</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
@@ -3107,13 +3125,13 @@
         <v>129</v>
       </c>
       <c r="B124" s="14">
-        <v>32.8036</v>
+        <v>28.0655</v>
       </c>
       <c r="C124" s="15">
-        <v>4.81</v>
+        <v>-6.67</v>
       </c>
       <c r="D124" s="16">
-        <v>787344</v>
+        <v>837540</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
@@ -3123,13 +3141,13 @@
         <v>130</v>
       </c>
       <c r="B125" s="14">
-        <v>31.2996</v>
+        <v>30.0698</v>
       </c>
       <c r="C125" s="15">
-        <v>-3.79</v>
+        <v>-6.24</v>
       </c>
       <c r="D125" s="16">
-        <v>781184</v>
+        <v>828613</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -3139,13 +3157,13 @@
         <v>131</v>
       </c>
       <c r="B126" s="14">
-        <v>32.5338</v>
+        <v>32.0708</v>
       </c>
       <c r="C126" s="15">
-        <v>0.22</v>
+        <v>2.7</v>
       </c>
       <c r="D126" s="16">
-        <v>777112</v>
+        <v>811874</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -3155,13 +3173,13 @@
         <v>132</v>
       </c>
       <c r="B127" s="14">
-        <v>32.4612</v>
+        <v>31.2293</v>
       </c>
       <c r="C127" s="15">
-        <v>-1.51</v>
+        <v>9.66</v>
       </c>
       <c r="D127" s="16">
-        <v>732265</v>
+        <v>823608</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
@@ -3171,13 +3189,13 @@
         <v>133</v>
       </c>
       <c r="B128" s="14">
-        <v>32.9598</v>
+        <v>28.4788</v>
       </c>
       <c r="C128" s="15">
-        <v>2.9</v>
+        <v>-5.38</v>
       </c>
       <c r="D128" s="16">
-        <v>714114</v>
+        <v>805856</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -3187,13 +3205,13 @@
         <v>134</v>
       </c>
       <c r="B129" s="14">
-        <v>32.0296</v>
+        <v>30.0977</v>
       </c>
       <c r="C129" s="15">
-        <v>7.32</v>
+        <v>-8.25</v>
       </c>
       <c r="D129" s="16">
-        <v>707713</v>
+        <v>800254</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -3203,13 +3221,13 @@
         <v>135</v>
       </c>
       <c r="B130" s="14">
-        <v>29.8443</v>
+        <v>32.8036</v>
       </c>
       <c r="C130" s="15">
-        <v>6.98</v>
+        <v>4.81</v>
       </c>
       <c r="D130" s="16">
-        <v>716622</v>
+        <v>787344</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
@@ -3219,13 +3237,13 @@
         <v>136</v>
       </c>
       <c r="B131" s="14">
-        <v>27.8961</v>
+        <v>31.2996</v>
       </c>
       <c r="C131" s="15">
-        <v>-2.76</v>
+        <v>-3.79</v>
       </c>
       <c r="D131" s="16">
-        <v>726785</v>
+        <v>781184</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
@@ -3235,13 +3253,13 @@
         <v>137</v>
       </c>
       <c r="B132" s="14">
-        <v>28.6868</v>
+        <v>32.5338</v>
       </c>
       <c r="C132" s="15">
-        <v>4.5</v>
+        <v>0.22</v>
       </c>
       <c r="D132" s="16">
-        <v>717005</v>
+        <v>777112</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
@@ -3251,13 +3269,13 @@
         <v>138</v>
       </c>
       <c r="B133" s="14">
-        <v>27.4513</v>
+        <v>32.4612</v>
       </c>
       <c r="C133" s="15">
-        <v>-3.46</v>
+        <v>-1.51</v>
       </c>
       <c r="D133" s="16">
-        <v>722546</v>
+        <v>732265</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -3267,13 +3285,13 @@
         <v>139</v>
       </c>
       <c r="B134" s="14">
-        <v>28.4357</v>
+        <v>32.9598</v>
       </c>
       <c r="C134" s="15">
-        <v>1.89</v>
+        <v>2.9</v>
       </c>
       <c r="D134" s="16">
-        <v>723087</v>
+        <v>714114</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -3283,13 +3301,13 @@
         <v>140</v>
       </c>
       <c r="B135" s="14">
-        <v>27.9095</v>
+        <v>32.0296</v>
       </c>
       <c r="C135" s="15">
-        <v>1.52</v>
+        <v>7.32</v>
       </c>
       <c r="D135" s="16">
-        <v>721740</v>
+        <v>707713</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -3299,13 +3317,13 @@
         <v>141</v>
       </c>
       <c r="B136" s="14">
-        <v>27.4909</v>
+        <v>29.8443</v>
       </c>
       <c r="C136" s="15">
-        <v>-3.65</v>
+        <v>6.98</v>
       </c>
       <c r="D136" s="16">
-        <v>716417</v>
+        <v>716622</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
@@ -3315,13 +3333,13 @@
         <v>142</v>
       </c>
       <c r="B137" s="14">
-        <v>28.5325</v>
+        <v>27.8961</v>
       </c>
       <c r="C137" s="15">
-        <v>-1.1</v>
+        <v>-2.76</v>
       </c>
       <c r="D137" s="16">
-        <v>690025</v>
+        <v>726785</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -3331,13 +3349,13 @@
         <v>143</v>
       </c>
       <c r="B138" s="14">
-        <v>28.8492</v>
+        <v>28.6868</v>
       </c>
       <c r="C138" s="15">
-        <v>2.34</v>
+        <v>4.5</v>
       </c>
       <c r="D138" s="16">
-        <v>686822</v>
+        <v>717005</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
@@ -3347,13 +3365,13 @@
         <v>144</v>
       </c>
       <c r="B139" s="14">
-        <v>28.1895</v>
+        <v>27.4513</v>
       </c>
       <c r="C139" s="15">
-        <v>1.04</v>
+        <v>-3.46</v>
       </c>
       <c r="D139" s="16">
-        <v>638904</v>
+        <v>722546</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
@@ -3363,13 +3381,13 @@
         <v>145</v>
       </c>
       <c r="B140" s="14">
-        <v>27.9008</v>
+        <v>28.4357</v>
       </c>
       <c r="C140" s="15">
-        <v>0.01</v>
+        <v>1.89</v>
       </c>
       <c r="D140" s="16">
-        <v>573545</v>
+        <v>723087</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -3379,13 +3397,13 @@
         <v>146</v>
       </c>
       <c r="B141" s="14">
-        <v>27.899</v>
+        <v>27.9095</v>
       </c>
       <c r="C141" s="15">
-        <v>4.24</v>
+        <v>1.52</v>
       </c>
       <c r="D141" s="16">
-        <v>569265</v>
+        <v>721740</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
@@ -3395,13 +3413,13 @@
         <v>147</v>
       </c>
       <c r="B142" s="14">
-        <v>26.7631</v>
+        <v>27.4909</v>
       </c>
       <c r="C142" s="15">
-        <v>-2.59</v>
+        <v>-3.65</v>
       </c>
       <c r="D142" s="16">
-        <v>568441</v>
+        <v>716417</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
@@ -3411,13 +3429,13 @@
         <v>148</v>
       </c>
       <c r="B143" s="14">
-        <v>27.4751</v>
+        <v>28.5325</v>
       </c>
       <c r="C143" s="15">
-        <v>0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="D143" s="16">
-        <v>549395</v>
+        <v>690025</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
@@ -3427,13 +3445,13 @@
         <v>149</v>
       </c>
       <c r="B144" s="14">
-        <v>27.2311</v>
+        <v>28.8492</v>
       </c>
       <c r="C144" s="15">
-        <v>1.54</v>
+        <v>2.34</v>
       </c>
       <c r="D144" s="16">
-        <v>537124</v>
+        <v>686822</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
@@ -3443,13 +3461,13 @@
         <v>150</v>
       </c>
       <c r="B145" s="14">
-        <v>26.8175</v>
+        <v>28.1895</v>
       </c>
       <c r="C145" s="15">
-        <v>4.64</v>
+        <v>1.04</v>
       </c>
       <c r="D145" s="16">
-        <v>522817</v>
+        <v>638904</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
@@ -3459,13 +3477,13 @@
         <v>151</v>
       </c>
       <c r="B146" s="14">
-        <v>25.6276</v>
+        <v>27.9008</v>
       </c>
       <c r="C146" s="15">
-        <v>5.66</v>
+        <v>0.01</v>
       </c>
       <c r="D146" s="16">
-        <v>514846</v>
+        <v>573545</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
@@ -3475,13 +3493,13 @@
         <v>152</v>
       </c>
       <c r="B147" s="14">
-        <v>24.2541</v>
+        <v>27.899</v>
       </c>
       <c r="C147" s="15">
-        <v>-1.75</v>
+        <v>4.24</v>
       </c>
       <c r="D147" s="16">
-        <v>518200</v>
+        <v>569265</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
@@ -3491,13 +3509,13 @@
         <v>153</v>
       </c>
       <c r="B148" s="14">
-        <v>24.6848</v>
+        <v>26.7631</v>
       </c>
       <c r="C148" s="15">
-        <v>6.19</v>
+        <v>-2.59</v>
       </c>
       <c r="D148" s="16">
-        <v>519512</v>
+        <v>568441</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
@@ -3507,13 +3525,13 @@
         <v>154</v>
       </c>
       <c r="B149" s="14">
-        <v>23.2455</v>
+        <v>27.4751</v>
       </c>
       <c r="C149" s="15">
-        <v>-5.33</v>
+        <v>0.9</v>
       </c>
       <c r="D149" s="16">
-        <v>511840</v>
+        <v>549395</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
@@ -3523,13 +3541,13 @@
         <v>155</v>
       </c>
       <c r="B150" s="14">
-        <v>24.5554</v>
+        <v>27.2311</v>
       </c>
       <c r="C150" s="15">
-        <v>4.07</v>
+        <v>1.54</v>
       </c>
       <c r="D150" s="16">
-        <v>512840</v>
+        <v>537124</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
@@ -3539,13 +3557,13 @@
         <v>156</v>
       </c>
       <c r="B151" s="14">
-        <v>23.5941</v>
+        <v>26.8175</v>
       </c>
       <c r="C151" s="15">
-        <v>2.86</v>
+        <v>4.64</v>
       </c>
       <c r="D151" s="16">
-        <v>506964</v>
+        <v>522817</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
@@ -3555,13 +3573,13 @@
         <v>157</v>
       </c>
       <c r="B152" s="14">
-        <v>22.938</v>
+        <v>25.6276</v>
       </c>
       <c r="C152" s="15">
-        <v>-0.41</v>
+        <v>5.66</v>
       </c>
       <c r="D152" s="16">
-        <v>502367</v>
+        <v>514846</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
@@ -3571,13 +3589,13 @@
         <v>158</v>
       </c>
       <c r="B153" s="14">
-        <v>23.0328</v>
+        <v>24.2541</v>
       </c>
       <c r="C153" s="15">
-        <v>-0.88</v>
+        <v>-1.75</v>
       </c>
       <c r="D153" s="16">
-        <v>500587</v>
+        <v>518200</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
@@ -3587,13 +3605,13 @@
         <v>159</v>
       </c>
       <c r="B154" s="14">
-        <v>23.2368</v>
+        <v>24.6848</v>
       </c>
       <c r="C154" s="15">
-        <v>3.33</v>
+        <v>6.19</v>
       </c>
       <c r="D154" s="16">
-        <v>504592</v>
+        <v>519512</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
@@ -3603,13 +3621,13 @@
         <v>160</v>
       </c>
       <c r="B155" s="14">
-        <v>22.4881</v>
+        <v>23.2455</v>
       </c>
       <c r="C155" s="15">
-        <v>1.97</v>
+        <v>-5.33</v>
       </c>
       <c r="D155" s="16">
-        <v>479847</v>
+        <v>511840</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
@@ -3619,13 +3637,13 @@
         <v>161</v>
       </c>
       <c r="B156" s="14">
-        <v>22.0542</v>
+        <v>24.5554</v>
       </c>
       <c r="C156" s="15">
-        <v>2.58</v>
+        <v>4.07</v>
       </c>
       <c r="D156" s="16">
-        <v>475517</v>
+        <v>512840</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
@@ -3635,13 +3653,13 @@
         <v>162</v>
       </c>
       <c r="B157" s="14">
-        <v>21.4988</v>
+        <v>23.5941</v>
       </c>
       <c r="C157" s="15">
-        <v>1.92</v>
+        <v>2.86</v>
       </c>
       <c r="D157" s="16">
-        <v>473695</v>
+        <v>506964</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
@@ -3651,13 +3669,13 @@
         <v>163</v>
       </c>
       <c r="B158" s="14">
-        <v>21.0946</v>
+        <v>22.938</v>
       </c>
       <c r="C158" s="15">
-        <v>1.38</v>
+        <v>-0.41</v>
       </c>
       <c r="D158" s="16">
-        <v>474190</v>
+        <v>502367</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
@@ -3667,13 +3685,13 @@
         <v>164</v>
       </c>
       <c r="B159" s="14">
-        <v>20.8075</v>
+        <v>23.0328</v>
       </c>
       <c r="C159" s="15">
-        <v>4.22</v>
+        <v>-0.88</v>
       </c>
       <c r="D159" s="16">
-        <v>475562</v>
+        <v>500587</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
@@ -3683,13 +3701,13 @@
         <v>165</v>
       </c>
       <c r="B160" s="14">
-        <v>19.965</v>
+        <v>23.2368</v>
       </c>
       <c r="C160" s="15">
-        <v>2.3</v>
+        <v>3.33</v>
       </c>
       <c r="D160" s="16">
-        <v>488120</v>
+        <v>504592</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
@@ -3699,13 +3717,13 @@
         <v>166</v>
       </c>
       <c r="B161" s="14">
-        <v>19.5161</v>
+        <v>22.4881</v>
       </c>
       <c r="C161" s="15">
-        <v>6.41</v>
+        <v>1.97</v>
       </c>
       <c r="D161" s="16">
-        <v>493557</v>
+        <v>479847</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
@@ -3715,13 +3733,13 @@
         <v>167</v>
       </c>
       <c r="B162" s="14">
-        <v>18.341</v>
+        <v>22.0542</v>
       </c>
       <c r="C162" s="15">
-        <v>-6.46</v>
+        <v>2.58</v>
       </c>
       <c r="D162" s="16">
-        <v>498219</v>
+        <v>475517</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
@@ -3731,13 +3749,13 @@
         <v>168</v>
       </c>
       <c r="B163" s="14">
-        <v>19.6079</v>
+        <v>21.4988</v>
       </c>
       <c r="C163" s="15">
-        <v>-4.6</v>
+        <v>1.92</v>
       </c>
       <c r="D163" s="16">
-        <v>486910</v>
+        <v>473695</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
@@ -3747,13 +3765,13 @@
         <v>169</v>
       </c>
       <c r="B164" s="14">
-        <v>20.5532</v>
+        <v>21.0946</v>
       </c>
       <c r="C164" s="15">
-        <v>-0.6</v>
+        <v>1.38</v>
       </c>
       <c r="D164" s="16">
-        <v>486691</v>
+        <v>474190</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
@@ -3763,13 +3781,13 @@
         <v>170</v>
       </c>
       <c r="B165" s="14">
-        <v>20.6775</v>
+        <v>20.8075</v>
       </c>
       <c r="C165" s="15">
-        <v>3.53</v>
+        <v>4.22</v>
       </c>
       <c r="D165" s="16">
-        <v>489392</v>
+        <v>475562</v>
       </c>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
@@ -3779,13 +3797,13 @@
         <v>171</v>
       </c>
       <c r="B166" s="14">
-        <v>19.9718</v>
+        <v>19.965</v>
       </c>
       <c r="C166" s="15">
-        <v>4.34</v>
+        <v>2.3</v>
       </c>
       <c r="D166" s="16">
-        <v>481614</v>
+        <v>488120</v>
       </c>
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
@@ -3795,13 +3813,13 @@
         <v>172</v>
       </c>
       <c r="B167" s="14">
-        <v>19.1413</v>
+        <v>19.5161</v>
       </c>
       <c r="C167" s="15">
-        <v>0</v>
+        <v>6.41</v>
       </c>
       <c r="D167" s="16">
-        <v>488160</v>
+        <v>493557</v>
       </c>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
@@ -3811,13 +3829,13 @@
         <v>173</v>
       </c>
       <c r="B168" s="14">
-        <v>19.1411</v>
+        <v>18.341</v>
       </c>
       <c r="C168" s="15">
-        <v>-1.52</v>
+        <v>-6.46</v>
       </c>
       <c r="D168" s="16">
-        <v>484766</v>
+        <v>498219</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
@@ -3827,13 +3845,13 @@
         <v>174</v>
       </c>
       <c r="B169" s="14">
-        <v>19.4365</v>
+        <v>19.6079</v>
       </c>
       <c r="C169" s="15">
-        <v>8.75</v>
+        <v>-4.6</v>
       </c>
       <c r="D169" s="16">
-        <v>491072</v>
+        <v>486910</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
@@ -3843,13 +3861,13 @@
         <v>175</v>
       </c>
       <c r="B170" s="14">
-        <v>17.8721</v>
+        <v>20.5532</v>
       </c>
       <c r="C170" s="15">
-        <v>-6.12</v>
+        <v>-0.6</v>
       </c>
       <c r="D170" s="16">
-        <v>490040</v>
+        <v>486691</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
@@ -3859,13 +3877,13 @@
         <v>176</v>
       </c>
       <c r="B171" s="14">
-        <v>19.0374</v>
+        <v>20.6775</v>
       </c>
       <c r="C171" s="15">
-        <v>-13.64</v>
+        <v>3.53</v>
       </c>
       <c r="D171" s="16">
-        <v>491288</v>
+        <v>489392</v>
       </c>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
@@ -3875,13 +3893,13 @@
         <v>177</v>
       </c>
       <c r="B172" s="14">
-        <v>22.0453</v>
+        <v>19.9718</v>
       </c>
       <c r="C172" s="15">
-        <v>-5.18</v>
+        <v>4.34</v>
       </c>
       <c r="D172" s="16">
-        <v>485299</v>
+        <v>481614</v>
       </c>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
@@ -3891,13 +3909,13 @@
         <v>178</v>
       </c>
       <c r="B173" s="14">
-        <v>23.2492</v>
+        <v>19.1413</v>
       </c>
       <c r="C173" s="15">
-        <v>-0.77</v>
+        <v>0</v>
       </c>
       <c r="D173" s="16">
-        <v>485663</v>
+        <v>488160</v>
       </c>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
@@ -3907,13 +3925,13 @@
         <v>179</v>
       </c>
       <c r="B174" s="14">
-        <v>23.4299</v>
+        <v>19.1411</v>
       </c>
       <c r="C174" s="15">
-        <v>-2.04</v>
+        <v>-1.52</v>
       </c>
       <c r="D174" s="16">
-        <v>442308</v>
+        <v>484766</v>
       </c>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
@@ -3923,13 +3941,13 @@
         <v>180</v>
       </c>
       <c r="B175" s="14">
-        <v>23.9171</v>
+        <v>19.4365</v>
       </c>
       <c r="C175" s="15">
-        <v>3.77</v>
+        <v>8.75</v>
       </c>
       <c r="D175" s="16">
-        <v>430473</v>
+        <v>491072</v>
       </c>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
@@ -3939,13 +3957,13 @@
         <v>181</v>
       </c>
       <c r="B176" s="14">
-        <v>23.0494</v>
+        <v>17.8721</v>
       </c>
       <c r="C176" s="15">
-        <v>-3.53</v>
+        <v>-6.12</v>
       </c>
       <c r="D176" s="16">
-        <v>428617</v>
+        <v>490040</v>
       </c>
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
@@ -3955,13 +3973,13 @@
         <v>182</v>
       </c>
       <c r="B177" s="14">
-        <v>23.8917</v>
+        <v>19.0374</v>
       </c>
       <c r="C177" s="15">
-        <v>1.68</v>
+        <v>-13.64</v>
       </c>
       <c r="D177" s="16">
-        <v>424182</v>
+        <v>491288</v>
       </c>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
@@ -3971,13 +3989,13 @@
         <v>183</v>
       </c>
       <c r="B178" s="14">
-        <v>23.497</v>
+        <v>22.0453</v>
       </c>
       <c r="C178" s="15">
-        <v>4.17</v>
+        <v>-5.18</v>
       </c>
       <c r="D178" s="16">
-        <v>423285</v>
+        <v>485299</v>
       </c>
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
@@ -3987,13 +4005,13 @@
         <v>184</v>
       </c>
       <c r="B179" s="14">
-        <v>22.5571</v>
+        <v>23.2492</v>
       </c>
       <c r="C179" s="15">
-        <v>5.44</v>
+        <v>-0.77</v>
       </c>
       <c r="D179" s="16">
-        <v>429378</v>
+        <v>485663</v>
       </c>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
@@ -4003,13 +4021,13 @@
         <v>185</v>
       </c>
       <c r="B180" s="14">
-        <v>21.3924</v>
+        <v>23.4299</v>
       </c>
       <c r="C180" s="15">
-        <v>-4.25</v>
+        <v>-2.04</v>
       </c>
       <c r="D180" s="16">
-        <v>423199</v>
+        <v>442308</v>
       </c>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
@@ -4019,13 +4037,13 @@
         <v>186</v>
       </c>
       <c r="B181" s="14">
-        <v>22.3416</v>
+        <v>23.9171</v>
       </c>
       <c r="C181" s="15">
-        <v>3.95</v>
+        <v>3.77</v>
       </c>
       <c r="D181" s="16">
-        <v>412456</v>
+        <v>430473</v>
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
@@ -4035,13 +4053,13 @@
         <v>187</v>
       </c>
       <c r="B182" s="14">
-        <v>21.4925</v>
+        <v>23.0494</v>
       </c>
       <c r="C182" s="15">
-        <v>4.68</v>
+        <v>-3.53</v>
       </c>
       <c r="D182" s="16">
-        <v>326758</v>
+        <v>428617</v>
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
@@ -4051,13 +4069,13 @@
         <v>188</v>
       </c>
       <c r="B183" s="14">
-        <v>20.5317</v>
+        <v>23.8917</v>
       </c>
       <c r="C183" s="15">
-        <v>-3.11</v>
+        <v>1.68</v>
       </c>
       <c r="D183" s="16">
-        <v>336995</v>
+        <v>424182</v>
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
@@ -4067,13 +4085,13 @@
         <v>189</v>
       </c>
       <c r="B184" s="14">
-        <v>21.1904</v>
+        <v>23.497</v>
       </c>
       <c r="C184" s="15">
-        <v>6.18</v>
+        <v>4.17</v>
       </c>
       <c r="D184" s="16">
-        <v>331625</v>
+        <v>423285</v>
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
@@ -4083,13 +4101,13 @@
         <v>190</v>
       </c>
       <c r="B185" s="14">
-        <v>19.9573</v>
+        <v>22.5571</v>
       </c>
       <c r="C185" s="15">
-        <v>-0.92</v>
+        <v>5.44</v>
       </c>
       <c r="D185" s="16">
-        <v>328691</v>
+        <v>429378</v>
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -4099,13 +4117,13 @@
         <v>191</v>
       </c>
       <c r="B186" s="14">
-        <v>20.1418</v>
+        <v>21.3924</v>
       </c>
       <c r="C186" s="15">
-        <v>-5.09</v>
+        <v>-4.25</v>
       </c>
       <c r="D186" s="16">
-        <v>327317</v>
+        <v>423199</v>
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
@@ -4115,13 +4133,13 @@
         <v>192</v>
       </c>
       <c r="B187" s="14">
-        <v>21.2225</v>
+        <v>22.3416</v>
       </c>
       <c r="C187" s="15">
-        <v>-2.73</v>
+        <v>3.95</v>
       </c>
       <c r="D187" s="16">
-        <v>299117</v>
+        <v>412456</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
@@ -4131,13 +4149,13 @@
         <v>193</v>
       </c>
       <c r="B188" s="14">
-        <v>21.8177</v>
+        <v>21.4925</v>
       </c>
       <c r="C188" s="15">
-        <v>7.96</v>
+        <v>4.68</v>
       </c>
       <c r="D188" s="16">
-        <v>295132</v>
+        <v>326758</v>
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
@@ -4147,13 +4165,13 @@
         <v>194</v>
       </c>
       <c r="B189" s="14">
-        <v>20.2093</v>
+        <v>20.5317</v>
       </c>
       <c r="C189" s="15">
-        <v>-1.29</v>
+        <v>-3.11</v>
       </c>
       <c r="D189" s="16">
-        <v>303571</v>
+        <v>336995</v>
       </c>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -4163,13 +4181,13 @@
         <v>195</v>
       </c>
       <c r="B190" s="14">
-        <v>20.4736</v>
+        <v>21.1904</v>
       </c>
       <c r="C190" s="15">
-        <v>-5.3</v>
+        <v>6.18</v>
       </c>
       <c r="D190" s="16">
-        <v>301017</v>
+        <v>331625</v>
       </c>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
@@ -4179,13 +4197,13 @@
         <v>196</v>
       </c>
       <c r="B191" s="14">
-        <v>21.6188</v>
+        <v>19.9573</v>
       </c>
       <c r="C191" s="15">
-        <v>6</v>
+        <v>-0.92</v>
       </c>
       <c r="D191" s="16">
-        <v>294300</v>
+        <v>328691</v>
       </c>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
@@ -4195,13 +4213,13 @@
         <v>197</v>
       </c>
       <c r="B192" s="14">
-        <v>20.3957</v>
+        <v>20.1418</v>
       </c>
       <c r="C192" s="15">
-        <v>1.58</v>
+        <v>-5.09</v>
       </c>
       <c r="D192" s="16">
-        <v>284739</v>
+        <v>327317</v>
       </c>
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
@@ -4211,13 +4229,13 @@
         <v>198</v>
       </c>
       <c r="B193" s="14">
-        <v>20.078</v>
+        <v>21.2225</v>
       </c>
       <c r="C193" s="15">
-        <v>-3.7</v>
+        <v>-2.73</v>
       </c>
       <c r="D193" s="16">
-        <v>283127</v>
+        <v>299117</v>
       </c>
       <c r="E193" s="12"/>
       <c r="F193" s="12"/>
@@ -4227,13 +4245,13 @@
         <v>199</v>
       </c>
       <c r="B194" s="14">
-        <v>20.849</v>
+        <v>21.8177</v>
       </c>
       <c r="C194" s="15">
-        <v>3.64</v>
+        <v>7.96</v>
       </c>
       <c r="D194" s="16">
-        <v>270532</v>
+        <v>295132</v>
       </c>
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
@@ -4243,13 +4261,13 @@
         <v>200</v>
       </c>
       <c r="B195" s="14">
-        <v>20.116</v>
+        <v>20.2093</v>
       </c>
       <c r="C195" s="15">
-        <v>5.5</v>
+        <v>-1.29</v>
       </c>
       <c r="D195" s="16">
-        <v>266639</v>
+        <v>303571</v>
       </c>
       <c r="E195" s="12"/>
       <c r="F195" s="12"/>
@@ -4259,13 +4277,13 @@
         <v>201</v>
       </c>
       <c r="B196" s="14">
-        <v>19.068</v>
+        <v>20.4736</v>
       </c>
       <c r="C196" s="15">
-        <v>9.52</v>
+        <v>-5.3</v>
       </c>
       <c r="D196" s="16">
-        <v>271882</v>
+        <v>301017</v>
       </c>
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
@@ -4275,13 +4293,13 @@
         <v>202</v>
       </c>
       <c r="B197" s="14">
-        <v>17.411</v>
+        <v>21.6188</v>
       </c>
       <c r="C197" s="15">
-        <v>-1.47</v>
+        <v>6</v>
       </c>
       <c r="D197" s="16">
-        <v>269945</v>
+        <v>294300</v>
       </c>
       <c r="E197" s="12"/>
       <c r="F197" s="12"/>
@@ -4291,13 +4309,13 @@
         <v>203</v>
       </c>
       <c r="B198" s="14">
-        <v>17.671</v>
+        <v>20.3957</v>
       </c>
       <c r="C198" s="15">
-        <v>6.86</v>
+        <v>1.58</v>
       </c>
       <c r="D198" s="16">
-        <v>263708</v>
+        <v>284739</v>
       </c>
       <c r="E198" s="12"/>
       <c r="F198" s="12"/>
@@ -4307,13 +4325,13 @@
         <v>204</v>
       </c>
       <c r="B199" s="14">
-        <v>16.536</v>
+        <v>20.078</v>
       </c>
       <c r="C199" s="15">
-        <v>11.29</v>
+        <v>-3.7</v>
       </c>
       <c r="D199" s="16">
-        <v>235753</v>
+        <v>283127</v>
       </c>
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
@@ -4323,13 +4341,13 @@
         <v>205</v>
       </c>
       <c r="B200" s="14">
-        <v>14.859</v>
+        <v>20.849</v>
       </c>
       <c r="C200" s="15">
-        <v>5.5</v>
+        <v>3.64</v>
       </c>
       <c r="D200" s="16">
-        <v>235308</v>
+        <v>270532</v>
       </c>
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
@@ -4339,13 +4357,13 @@
         <v>206</v>
       </c>
       <c r="B201" s="14">
-        <v>14.085</v>
+        <v>20.116</v>
       </c>
       <c r="C201" s="15">
-        <v>-10.55</v>
+        <v>5.5</v>
       </c>
       <c r="D201" s="16">
-        <v>238030</v>
+        <v>266639</v>
       </c>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
@@ -4355,13 +4373,13 @@
         <v>207</v>
       </c>
       <c r="B202" s="14">
-        <v>15.746</v>
+        <v>19.068</v>
       </c>
       <c r="C202" s="15">
-        <v>-4.29</v>
+        <v>9.52</v>
       </c>
       <c r="D202" s="16">
-        <v>236865</v>
+        <v>271882</v>
       </c>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
@@ -4371,13 +4389,13 @@
         <v>208</v>
       </c>
       <c r="B203" s="14">
-        <v>16.452</v>
+        <v>17.411</v>
       </c>
       <c r="C203" s="15">
-        <v>-2.08</v>
+        <v>-1.47</v>
       </c>
       <c r="D203" s="16">
-        <v>237472</v>
+        <v>269945</v>
       </c>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
@@ -4387,13 +4405,13 @@
         <v>209</v>
       </c>
       <c r="B204" s="14">
-        <v>16.801</v>
+        <v>17.671</v>
       </c>
       <c r="C204" s="15">
-        <v>-1.63</v>
+        <v>6.86</v>
       </c>
       <c r="D204" s="16">
-        <v>233972</v>
+        <v>263708</v>
       </c>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
@@ -4403,13 +4421,13 @@
         <v>210</v>
       </c>
       <c r="B205" s="14">
-        <v>17.079</v>
+        <v>16.536</v>
       </c>
       <c r="C205" s="15">
-        <v>-22.52</v>
+        <v>11.29</v>
       </c>
       <c r="D205" s="16">
-        <v>228863</v>
+        <v>235753</v>
       </c>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
@@ -4419,13 +4437,13 @@
         <v>211</v>
       </c>
       <c r="B206" s="14">
-        <v>22.043</v>
+        <v>14.859</v>
       </c>
       <c r="C206" s="15">
-        <v>-5.79</v>
+        <v>5.5</v>
       </c>
       <c r="D206" s="16">
-        <v>229017</v>
+        <v>235308</v>
       </c>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
@@ -4435,13 +4453,13 @@
         <v>212</v>
       </c>
       <c r="B207" s="14">
-        <v>23.398</v>
+        <v>14.085</v>
       </c>
       <c r="C207" s="15">
-        <v>1.83</v>
+        <v>-10.55</v>
       </c>
       <c r="D207" s="16">
-        <v>231935</v>
+        <v>238030</v>
       </c>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -4451,13 +4469,13 @@
         <v>213</v>
       </c>
       <c r="B208" s="14">
-        <v>22.977</v>
+        <v>15.746</v>
       </c>
       <c r="C208" s="15">
-        <v>-0.71</v>
+        <v>-4.29</v>
       </c>
       <c r="D208" s="16">
-        <v>228869</v>
+        <v>236865</v>
       </c>
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
@@ -4467,13 +4485,13 @@
         <v>214</v>
       </c>
       <c r="B209" s="14">
-        <v>23.141</v>
+        <v>16.452</v>
       </c>
       <c r="C209" s="15">
-        <v>-10.53</v>
+        <v>-2.08</v>
       </c>
       <c r="D209" s="16">
-        <v>234172</v>
+        <v>237472</v>
       </c>
       <c r="E209" s="12"/>
       <c r="F209" s="12"/>
@@ -4483,13 +4501,13 @@
         <v>215</v>
       </c>
       <c r="B210" s="14">
-        <v>25.863</v>
+        <v>16.801</v>
       </c>
       <c r="C210" s="15">
-        <v>1.01</v>
+        <v>-1.63</v>
       </c>
       <c r="D210" s="16">
-        <v>231881</v>
+        <v>233972</v>
       </c>
       <c r="E210" s="12"/>
       <c r="F210" s="12"/>
@@ -4499,13 +4517,13 @@
         <v>216</v>
       </c>
       <c r="B211" s="14">
-        <v>25.605</v>
+        <v>17.079</v>
       </c>
       <c r="C211" s="15">
-        <v>3.78</v>
+        <v>-22.52</v>
       </c>
       <c r="D211" s="16">
-        <v>221657</v>
+        <v>228863</v>
       </c>
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
@@ -4515,13 +4533,13 @@
         <v>217</v>
       </c>
       <c r="B212" s="14">
-        <v>24.673</v>
+        <v>22.043</v>
       </c>
       <c r="C212" s="15">
-        <v>-3.12</v>
+        <v>-5.79</v>
       </c>
       <c r="D212" s="16">
-        <v>221783</v>
+        <v>229017</v>
       </c>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -4531,13 +4549,13 @@
         <v>218</v>
       </c>
       <c r="B213" s="14">
-        <v>25.467</v>
+        <v>23.398</v>
       </c>
       <c r="C213" s="15">
-        <v>-3.04</v>
+        <v>1.83</v>
       </c>
       <c r="D213" s="16">
-        <v>226684</v>
+        <v>231935</v>
       </c>
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
@@ -4547,13 +4565,13 @@
         <v>219</v>
       </c>
       <c r="B214" s="14">
-        <v>26.265</v>
+        <v>22.977</v>
       </c>
       <c r="C214" s="15">
-        <v>-11.04</v>
+        <v>-0.71</v>
       </c>
       <c r="D214" s="16">
-        <v>230016</v>
+        <v>228869</v>
       </c>
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
@@ -4563,13 +4581,13 @@
         <v>220</v>
       </c>
       <c r="B215" s="14">
-        <v>29.524</v>
+        <v>23.141</v>
       </c>
       <c r="C215" s="15">
-        <v>0.24</v>
+        <v>-10.53</v>
       </c>
       <c r="D215" s="16">
-        <v>228955</v>
+        <v>234172</v>
       </c>
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
@@ -4579,13 +4597,13 @@
         <v>221</v>
       </c>
       <c r="B216" s="14">
-        <v>29.454</v>
+        <v>25.863</v>
       </c>
       <c r="C216" s="15">
-        <v>-1.61</v>
+        <v>1.01</v>
       </c>
       <c r="D216" s="16">
-        <v>252907</v>
+        <v>231881</v>
       </c>
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
@@ -4595,13 +4613,13 @@
         <v>222</v>
       </c>
       <c r="B217" s="14">
-        <v>29.936</v>
+        <v>25.605</v>
       </c>
       <c r="C217" s="15">
-        <v>0.98</v>
+        <v>3.78</v>
       </c>
       <c r="D217" s="16">
-        <v>251535</v>
+        <v>221657</v>
       </c>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
@@ -4611,13 +4629,13 @@
         <v>223</v>
       </c>
       <c r="B218" s="14">
-        <v>29.645</v>
+        <v>24.673</v>
       </c>
       <c r="C218" s="15">
-        <v>2.3</v>
+        <v>-3.12</v>
       </c>
       <c r="D218" s="16">
-        <v>253465</v>
+        <v>221783</v>
       </c>
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
@@ -4627,13 +4645,13 @@
         <v>224</v>
       </c>
       <c r="B219" s="14">
-        <v>28.98</v>
+        <v>25.467</v>
       </c>
       <c r="C219" s="15">
-        <v>1.49</v>
+        <v>-3.04</v>
       </c>
       <c r="D219" s="16">
-        <v>254351</v>
+        <v>226684</v>
       </c>
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
@@ -4643,13 +4661,13 @@
         <v>225</v>
       </c>
       <c r="B220" s="14">
-        <v>28.554</v>
+        <v>26.265</v>
       </c>
       <c r="C220" s="15">
-        <v>-5.71</v>
+        <v>-11.04</v>
       </c>
       <c r="D220" s="16">
-        <v>257782</v>
+        <v>230016</v>
       </c>
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
@@ -4659,13 +4677,13 @@
         <v>226</v>
       </c>
       <c r="B221" s="14">
-        <v>30.283</v>
+        <v>29.524</v>
       </c>
       <c r="C221" s="15">
-        <v>0.95</v>
+        <v>0.24</v>
       </c>
       <c r="D221" s="16">
-        <v>253910</v>
+        <v>228955</v>
       </c>
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
@@ -4675,13 +4693,13 @@
         <v>227</v>
       </c>
       <c r="B222" s="14">
-        <v>29.997</v>
+        <v>29.454</v>
       </c>
       <c r="C222" s="15">
-        <v>1.38</v>
+        <v>-1.61</v>
       </c>
       <c r="D222" s="16">
-        <v>248908</v>
+        <v>252907</v>
       </c>
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
@@ -4691,13 +4709,13 @@
         <v>228</v>
       </c>
       <c r="B223" s="14">
-        <v>29.589</v>
+        <v>29.936</v>
       </c>
       <c r="C223" s="15">
-        <v>5.97</v>
+        <v>0.98</v>
       </c>
       <c r="D223" s="16">
-        <v>220993</v>
+        <v>251535</v>
       </c>
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
@@ -4707,13 +4725,13 @@
         <v>229</v>
       </c>
       <c r="B224" s="14">
-        <v>27.923</v>
+        <v>29.645</v>
       </c>
       <c r="C224" s="15">
-        <v>-2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D224" s="16">
-        <v>217458</v>
+        <v>253465</v>
       </c>
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
@@ -4723,13 +4741,13 @@
         <v>230</v>
       </c>
       <c r="B225" s="14">
-        <v>28.522</v>
+        <v>28.98</v>
       </c>
       <c r="C225" s="15">
-        <v>2.66</v>
+        <v>1.49</v>
       </c>
       <c r="D225" s="16">
-        <v>220311</v>
+        <v>254351</v>
       </c>
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
@@ -4739,13 +4757,13 @@
         <v>231</v>
       </c>
       <c r="B226" s="14">
-        <v>27.783</v>
+        <v>28.554</v>
       </c>
       <c r="C226" s="15">
-        <v>0.47</v>
+        <v>-5.71</v>
       </c>
       <c r="D226" s="16">
-        <v>219454</v>
+        <v>257782</v>
       </c>
       <c r="E226" s="12"/>
       <c r="F226" s="12"/>
@@ -4755,13 +4773,13 @@
         <v>232</v>
       </c>
       <c r="B227" s="14">
-        <v>27.654</v>
+        <v>30.283</v>
       </c>
       <c r="C227" s="15">
-        <v>1.61</v>
+        <v>0.95</v>
       </c>
       <c r="D227" s="16">
-        <v>222358</v>
+        <v>253910</v>
       </c>
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
@@ -4771,13 +4789,13 @@
         <v>233</v>
       </c>
       <c r="B228" s="14">
-        <v>27.217</v>
+        <v>29.997</v>
       </c>
       <c r="C228" s="15">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="D228" s="16">
-        <v>224057</v>
+        <v>248908</v>
       </c>
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
@@ -4787,13 +4805,13 @@
         <v>234</v>
       </c>
       <c r="B229" s="14">
-        <v>26.887</v>
+        <v>29.589</v>
       </c>
       <c r="C229" s="15">
-        <v>3.46</v>
+        <v>5.97</v>
       </c>
       <c r="D229" s="16">
-        <v>221708</v>
+        <v>220993</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
@@ -4803,13 +4821,13 @@
         <v>235</v>
       </c>
       <c r="B230" s="14">
-        <v>25.987</v>
+        <v>27.923</v>
       </c>
       <c r="C230" s="15">
-        <v>2.57</v>
+        <v>-2.1</v>
       </c>
       <c r="D230" s="16">
-        <v>222577</v>
+        <v>217458</v>
       </c>
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
@@ -4819,13 +4837,13 @@
         <v>236</v>
       </c>
       <c r="B231" s="14">
-        <v>25.336</v>
+        <v>28.522</v>
       </c>
       <c r="C231" s="15">
-        <v>3.29</v>
+        <v>2.66</v>
       </c>
       <c r="D231" s="16">
-        <v>226570</v>
+        <v>220311</v>
       </c>
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
@@ -4835,13 +4853,13 @@
         <v>237</v>
       </c>
       <c r="B232" s="14">
-        <v>24.529</v>
+        <v>27.783</v>
       </c>
       <c r="C232" s="15">
-        <v>1.06</v>
+        <v>0.47</v>
       </c>
       <c r="D232" s="16">
-        <v>224857</v>
+        <v>219454</v>
       </c>
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
@@ -4851,13 +4869,13 @@
         <v>238</v>
       </c>
       <c r="B233" s="14">
-        <v>24.272</v>
+        <v>27.654</v>
       </c>
       <c r="C233" s="15">
-        <v>-0.36</v>
+        <v>1.61</v>
       </c>
       <c r="D233" s="16">
-        <v>225502</v>
+        <v>222358</v>
       </c>
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
@@ -4867,13 +4885,13 @@
         <v>239</v>
       </c>
       <c r="B234" s="14">
-        <v>24.359</v>
+        <v>27.217</v>
       </c>
       <c r="C234" s="15">
-        <v>-4.02</v>
+        <v>1.23</v>
       </c>
       <c r="D234" s="16">
-        <v>223278</v>
+        <v>224057</v>
       </c>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
@@ -4883,13 +4901,13 @@
         <v>240</v>
       </c>
       <c r="B235" s="14">
-        <v>25.38</v>
+        <v>26.887</v>
       </c>
       <c r="C235" s="15">
-        <v>0.27</v>
+        <v>3.46</v>
       </c>
       <c r="D235" s="16">
-        <v>202191</v>
+        <v>221708</v>
       </c>
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
@@ -4899,13 +4917,13 @@
         <v>241</v>
       </c>
       <c r="B236" s="14">
-        <v>25.313</v>
+        <v>25.987</v>
       </c>
       <c r="C236" s="15">
-        <v>1.2</v>
+        <v>2.57</v>
       </c>
       <c r="D236" s="16">
-        <v>197576</v>
+        <v>222577</v>
       </c>
       <c r="E236" s="12"/>
       <c r="F236" s="12"/>
@@ -4915,13 +4933,13 @@
         <v>242</v>
       </c>
       <c r="B237" s="14">
-        <v>25.013</v>
+        <v>25.336</v>
       </c>
       <c r="C237" s="15">
-        <v>3.9</v>
+        <v>3.29</v>
       </c>
       <c r="D237" s="16">
-        <v>195876</v>
+        <v>226570</v>
       </c>
       <c r="E237" s="12"/>
       <c r="F237" s="12"/>
@@ -4931,13 +4949,13 @@
         <v>243</v>
       </c>
       <c r="B238" s="14">
-        <v>24.074</v>
+        <v>24.529</v>
       </c>
       <c r="C238" s="15">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="D238" s="16">
-        <v>195724</v>
+        <v>224857</v>
       </c>
       <c r="E238" s="12"/>
       <c r="F238" s="12"/>
@@ -4947,13 +4965,13 @@
         <v>244</v>
       </c>
       <c r="B239" s="14">
-        <v>23.711</v>
+        <v>24.272</v>
       </c>
       <c r="C239" s="15">
-        <v>3.78</v>
+        <v>-0.36</v>
       </c>
       <c r="D239" s="16">
-        <v>194713</v>
+        <v>225502</v>
       </c>
       <c r="E239" s="12"/>
       <c r="F239" s="12"/>
@@ -4963,13 +4981,13 @@
         <v>245</v>
       </c>
       <c r="B240" s="14">
-        <v>22.848</v>
+        <v>24.359</v>
       </c>
       <c r="C240" s="15">
-        <v>6.73</v>
+        <v>-4.02</v>
       </c>
       <c r="D240" s="16">
-        <v>197944</v>
+        <v>223278</v>
       </c>
       <c r="E240" s="12"/>
       <c r="F240" s="12"/>
@@ -4979,13 +4997,13 @@
         <v>246</v>
       </c>
       <c r="B241" s="14">
-        <v>21.408</v>
+        <v>25.38</v>
       </c>
       <c r="C241" s="15">
-        <v>-5.81</v>
+        <v>0.27</v>
       </c>
       <c r="D241" s="16">
-        <v>198398</v>
+        <v>202191</v>
       </c>
       <c r="E241" s="12"/>
       <c r="F241" s="12"/>
@@ -4995,13 +5013,13 @@
         <v>247</v>
       </c>
       <c r="B242" s="14">
-        <v>22.729</v>
+        <v>25.313</v>
       </c>
       <c r="C242" s="15">
-        <v>5.13</v>
+        <v>1.2</v>
       </c>
       <c r="D242" s="16">
-        <v>198489</v>
+        <v>197576</v>
       </c>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
@@ -5011,13 +5029,13 @@
         <v>248</v>
       </c>
       <c r="B243" s="14">
-        <v>21.62</v>
+        <v>25.013</v>
       </c>
       <c r="C243" s="15">
-        <v>-2.03</v>
+        <v>3.9</v>
       </c>
       <c r="D243" s="16">
-        <v>203892</v>
+        <v>195876</v>
       </c>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
@@ -5027,13 +5045,13 @@
         <v>249</v>
       </c>
       <c r="B244" s="14">
-        <v>22.067</v>
+        <v>24.074</v>
       </c>
       <c r="C244" s="15">
-        <v>5.14</v>
+        <v>1.53</v>
       </c>
       <c r="D244" s="16">
-        <v>202963</v>
+        <v>195724</v>
       </c>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
@@ -5043,13 +5061,13 @@
         <v>250</v>
       </c>
       <c r="B245" s="14">
-        <v>20.989</v>
+        <v>23.711</v>
       </c>
       <c r="C245" s="15">
-        <v>2.94</v>
+        <v>3.78</v>
       </c>
       <c r="D245" s="16">
-        <v>202117</v>
+        <v>194713</v>
       </c>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
@@ -5059,13 +5077,13 @@
         <v>251</v>
       </c>
       <c r="B246" s="14">
-        <v>20.39</v>
+        <v>22.848</v>
       </c>
       <c r="C246" s="15">
-        <v>4.3</v>
+        <v>6.73</v>
       </c>
       <c r="D246" s="16">
-        <v>201807</v>
+        <v>197944</v>
       </c>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
@@ -5075,13 +5093,13 @@
         <v>252</v>
       </c>
       <c r="B247" s="14">
-        <v>19.55</v>
+        <v>21.408</v>
       </c>
       <c r="C247" s="15">
-        <v>-3.79</v>
+        <v>-5.81</v>
       </c>
       <c r="D247" s="16">
-        <v>155116</v>
+        <v>198398</v>
       </c>
       <c r="E247" s="12"/>
       <c r="F247" s="12"/>
@@ -5091,13 +5109,13 @@
         <v>253</v>
       </c>
       <c r="B248" s="14">
-        <v>20.32</v>
+        <v>22.729</v>
       </c>
       <c r="C248" s="15">
-        <v>0.15</v>
+        <v>5.13</v>
       </c>
       <c r="D248" s="16">
-        <v>131672</v>
+        <v>198489</v>
       </c>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -5107,13 +5125,13 @@
         <v>254</v>
       </c>
       <c r="B249" s="14">
-        <v>20.29</v>
+        <v>21.62</v>
       </c>
       <c r="C249" s="15">
-        <v>2.27</v>
+        <v>-2.03</v>
       </c>
       <c r="D249" s="16">
-        <v>122295</v>
+        <v>203892</v>
       </c>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -5123,13 +5141,13 @@
         <v>255</v>
       </c>
       <c r="B250" s="14">
-        <v>19.84</v>
+        <v>22.067</v>
       </c>
       <c r="C250" s="15">
-        <v>0.92</v>
+        <v>5.14</v>
       </c>
       <c r="D250" s="16">
-        <v>124008</v>
+        <v>202963</v>
       </c>
       <c r="E250" s="12"/>
       <c r="F250" s="12"/>
@@ -5139,13 +5157,13 @@
         <v>256</v>
       </c>
       <c r="B251" s="14">
-        <v>19.66</v>
+        <v>20.989</v>
       </c>
       <c r="C251" s="15">
-        <v>1.55</v>
+        <v>2.94</v>
       </c>
       <c r="D251" s="16">
-        <v>126116</v>
+        <v>202117</v>
       </c>
       <c r="E251" s="12"/>
       <c r="F251" s="12"/>
@@ -5155,13 +5173,13 @@
         <v>257</v>
       </c>
       <c r="B252" s="14">
-        <v>19.36</v>
+        <v>20.39</v>
       </c>
       <c r="C252" s="15">
-        <v>3.09</v>
+        <v>4.3</v>
       </c>
       <c r="D252" s="16">
-        <v>131638</v>
+        <v>201807</v>
       </c>
       <c r="E252" s="12"/>
       <c r="F252" s="12"/>
@@ -5171,13 +5189,13 @@
         <v>258</v>
       </c>
       <c r="B253" s="14">
-        <v>18.78</v>
+        <v>19.55</v>
       </c>
       <c r="C253" s="15">
-        <v>2.74</v>
+        <v>-3.79</v>
       </c>
       <c r="D253" s="16">
-        <v>138406</v>
+        <v>155116</v>
       </c>
       <c r="E253" s="12"/>
       <c r="F253" s="12"/>
@@ -5187,13 +5205,13 @@
         <v>259</v>
       </c>
       <c r="B254" s="14">
-        <v>18.28</v>
+        <v>20.32</v>
       </c>
       <c r="C254" s="15">
-        <v>1.16</v>
+        <v>0.15</v>
       </c>
       <c r="D254" s="16">
-        <v>147590</v>
+        <v>131672</v>
       </c>
       <c r="E254" s="12"/>
       <c r="F254" s="12"/>
@@ -5203,13 +5221,13 @@
         <v>260</v>
       </c>
       <c r="B255" s="14">
-        <v>18.07</v>
+        <v>20.29</v>
       </c>
       <c r="C255" s="15">
-        <v>-0.55</v>
+        <v>2.27</v>
       </c>
       <c r="D255" s="16">
-        <v>147349</v>
+        <v>122295</v>
       </c>
       <c r="E255" s="12"/>
       <c r="F255" s="12"/>
@@ -5219,13 +5237,13 @@
         <v>261</v>
       </c>
       <c r="B256" s="14">
-        <v>18.17</v>
+        <v>19.84</v>
       </c>
       <c r="C256" s="15">
-        <v>-2.63</v>
+        <v>0.92</v>
       </c>
       <c r="D256" s="16">
-        <v>146153</v>
+        <v>124008</v>
       </c>
       <c r="E256" s="12"/>
       <c r="F256" s="12"/>
@@ -5235,13 +5253,13 @@
         <v>262</v>
       </c>
       <c r="B257" s="14">
-        <v>18.66</v>
+        <v>19.66</v>
       </c>
       <c r="C257" s="15">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="D257" s="16">
-        <v>144526</v>
+        <v>126116</v>
       </c>
       <c r="E257" s="12"/>
       <c r="F257" s="12"/>
@@ -5251,13 +5269,13 @@
         <v>263</v>
       </c>
       <c r="B258" s="14">
-        <v>18.31</v>
+        <v>19.36</v>
       </c>
       <c r="C258" s="15">
-        <v>-0.22</v>
+        <v>3.09</v>
       </c>
       <c r="D258" s="16">
-        <v>146231</v>
+        <v>131638</v>
       </c>
       <c r="E258" s="12"/>
       <c r="F258" s="12"/>
@@ -5267,13 +5285,13 @@
         <v>264</v>
       </c>
       <c r="B259" s="14">
-        <v>18.35</v>
+        <v>18.78</v>
       </c>
       <c r="C259" s="15">
-        <v>0.94</v>
+        <v>2.74</v>
       </c>
       <c r="D259" s="16">
-        <v>141796</v>
+        <v>138406</v>
       </c>
       <c r="E259" s="12"/>
       <c r="F259" s="12"/>
@@ -5283,13 +5301,13 @@
         <v>265</v>
       </c>
       <c r="B260" s="14">
-        <v>18.18</v>
+        <v>18.28</v>
       </c>
       <c r="C260" s="15">
-        <v>-3.3</v>
+        <v>1.16</v>
       </c>
       <c r="D260" s="16">
-        <v>136164</v>
+        <v>147590</v>
       </c>
       <c r="E260" s="12"/>
       <c r="F260" s="12"/>
@@ -5299,13 +5317,13 @@
         <v>266</v>
       </c>
       <c r="B261" s="14">
-        <v>18.8</v>
+        <v>18.07</v>
       </c>
       <c r="C261" s="15">
-        <v>0.59</v>
+        <v>-0.55</v>
       </c>
       <c r="D261" s="16">
-        <v>136709</v>
+        <v>147349</v>
       </c>
       <c r="E261" s="12"/>
       <c r="F261" s="12"/>
@@ -5315,13 +5333,13 @@
         <v>267</v>
       </c>
       <c r="B262" s="14">
-        <v>18.69</v>
+        <v>18.17</v>
       </c>
       <c r="C262" s="15">
-        <v>3.49</v>
+        <v>-2.63</v>
       </c>
       <c r="D262" s="16">
-        <v>131958</v>
+        <v>146153</v>
       </c>
       <c r="E262" s="12"/>
       <c r="F262" s="12"/>
@@ -5331,13 +5349,13 @@
         <v>268</v>
       </c>
       <c r="B263" s="14">
-        <v>18.06</v>
+        <v>18.66</v>
       </c>
       <c r="C263" s="15">
-        <v>3.32</v>
+        <v>1.91</v>
       </c>
       <c r="D263" s="16">
-        <v>128744</v>
+        <v>144526</v>
       </c>
       <c r="E263" s="12"/>
       <c r="F263" s="12"/>
@@ -5347,13 +5365,13 @@
         <v>269</v>
       </c>
       <c r="B264" s="14">
-        <v>17.48</v>
+        <v>18.31</v>
       </c>
       <c r="C264" s="15">
-        <v>1.87</v>
+        <v>-0.22</v>
       </c>
       <c r="D264" s="16">
-        <v>0</v>
+        <v>146231</v>
       </c>
       <c r="E264" s="12"/>
       <c r="F264" s="12"/>
@@ -5363,13 +5381,13 @@
         <v>270</v>
       </c>
       <c r="B265" s="14">
-        <v>17.16</v>
+        <v>18.35</v>
       </c>
       <c r="C265" s="15">
-        <v>3.56</v>
+        <v>0.94</v>
       </c>
       <c r="D265" s="16">
-        <v>0</v>
+        <v>141796</v>
       </c>
       <c r="E265" s="12"/>
       <c r="F265" s="12"/>
@@ -5379,13 +5397,13 @@
         <v>271</v>
       </c>
       <c r="B266" s="14">
-        <v>16.57</v>
+        <v>18.18</v>
       </c>
       <c r="C266" s="15">
-        <v>-4</v>
+        <v>-3.3</v>
       </c>
       <c r="D266" s="16">
-        <v>0</v>
+        <v>136164</v>
       </c>
       <c r="E266" s="12"/>
       <c r="F266" s="12"/>
@@ -5395,13 +5413,13 @@
         <v>272</v>
       </c>
       <c r="B267" s="14">
-        <v>17.26</v>
+        <v>18.8</v>
       </c>
       <c r="C267" s="15">
-        <v>4.48</v>
+        <v>0.59</v>
       </c>
       <c r="D267" s="16">
-        <v>0</v>
+        <v>136709</v>
       </c>
       <c r="E267" s="12"/>
       <c r="F267" s="12"/>
@@ -5411,13 +5429,13 @@
         <v>273</v>
       </c>
       <c r="B268" s="14">
-        <v>16.52</v>
+        <v>18.69</v>
       </c>
       <c r="C268" s="15">
-        <v>-0.24</v>
+        <v>3.49</v>
       </c>
       <c r="D268" s="16">
-        <v>0</v>
+        <v>131958</v>
       </c>
       <c r="E268" s="12"/>
       <c r="F268" s="12"/>
@@ -5427,13 +5445,13 @@
         <v>274</v>
       </c>
       <c r="B269" s="14">
-        <v>16.56</v>
+        <v>18.06</v>
       </c>
       <c r="C269" s="15">
-        <v>4.09</v>
+        <v>3.32</v>
       </c>
       <c r="D269" s="16">
-        <v>0</v>
+        <v>128744</v>
       </c>
       <c r="E269" s="12"/>
       <c r="F269" s="12"/>
@@ -5443,10 +5461,10 @@
         <v>275</v>
       </c>
       <c r="B270" s="14">
-        <v>15.91</v>
+        <v>17.48</v>
       </c>
       <c r="C270" s="15">
-        <v>0.89</v>
+        <v>1.87</v>
       </c>
       <c r="D270" s="16">
         <v>0</v>
@@ -5459,10 +5477,10 @@
         <v>276</v>
       </c>
       <c r="B271" s="14">
-        <v>15.77</v>
+        <v>17.16</v>
       </c>
       <c r="C271" s="15">
-        <v>4.99</v>
+        <v>3.56</v>
       </c>
       <c r="D271" s="16">
         <v>0</v>
@@ -5475,10 +5493,10 @@
         <v>277</v>
       </c>
       <c r="B272" s="14">
-        <v>15.02</v>
+        <v>16.57</v>
       </c>
       <c r="C272" s="15">
-        <v>-6.07</v>
+        <v>-4</v>
       </c>
       <c r="D272" s="16">
         <v>0</v>
@@ -5491,10 +5509,10 @@
         <v>278</v>
       </c>
       <c r="B273" s="14">
-        <v>15.99</v>
+        <v>17.26</v>
       </c>
       <c r="C273" s="15">
-        <v>-28.2</v>
+        <v>4.48</v>
       </c>
       <c r="D273" s="16">
         <v>0</v>
@@ -5507,10 +5525,10 @@
         <v>279</v>
       </c>
       <c r="B274" s="14">
-        <v>22.27</v>
+        <v>16.52</v>
       </c>
       <c r="C274" s="15">
-        <v>-16.53</v>
+        <v>-0.24</v>
       </c>
       <c r="D274" s="16">
         <v>0</v>
@@ -5523,10 +5541,10 @@
         <v>280</v>
       </c>
       <c r="B275" s="14">
-        <v>26.68</v>
+        <v>16.56</v>
       </c>
       <c r="C275" s="15">
-        <v>-11.04</v>
+        <v>4.09</v>
       </c>
       <c r="D275" s="16">
         <v>0</v>
@@ -5539,10 +5557,10 @@
         <v>281</v>
       </c>
       <c r="B276" s="14">
-        <v>29.99</v>
-      </c>
-      <c r="C276" s="17" t="s">
-        <v>282</v>
+        <v>15.91</v>
+      </c>
+      <c r="C276" s="15">
+        <v>0.89</v>
       </c>
       <c r="D276" s="16">
         <v>0</v>
@@ -5550,18 +5568,114 @@
       <c r="E276" s="12"/>
       <c r="F276" s="12"/>
     </row>
-    <row r="277" ht="35" customHeight="1">
-      <c r="A277" s="18" t="s">
+    <row r="277" s="12" customFormat="1">
+      <c r="A277" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B277" s="14">
+        <v>15.77</v>
+      </c>
+      <c r="C277" s="15">
+        <v>4.99</v>
+      </c>
+      <c r="D277" s="16">
+        <v>0</v>
+      </c>
+      <c r="E277" s="12"/>
+      <c r="F277" s="12"/>
+    </row>
+    <row r="278" s="12" customFormat="1">
+      <c r="A278" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="B277" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="C277" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D277" s="18" t="s">
-        <v>283</v>
+      <c r="B278" s="14">
+        <v>15.02</v>
+      </c>
+      <c r="C278" s="15">
+        <v>-6.07</v>
+      </c>
+      <c r="D278" s="16">
+        <v>0</v>
+      </c>
+      <c r="E278" s="12"/>
+      <c r="F278" s="12"/>
+    </row>
+    <row r="279" s="12" customFormat="1">
+      <c r="A279" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279" s="14">
+        <v>15.99</v>
+      </c>
+      <c r="C279" s="15">
+        <v>-28.2</v>
+      </c>
+      <c r="D279" s="16">
+        <v>0</v>
+      </c>
+      <c r="E279" s="12"/>
+      <c r="F279" s="12"/>
+    </row>
+    <row r="280" s="12" customFormat="1">
+      <c r="A280" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B280" s="14">
+        <v>22.27</v>
+      </c>
+      <c r="C280" s="15">
+        <v>-16.53</v>
+      </c>
+      <c r="D280" s="16">
+        <v>0</v>
+      </c>
+      <c r="E280" s="12"/>
+      <c r="F280" s="12"/>
+    </row>
+    <row r="281" s="12" customFormat="1">
+      <c r="A281" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B281" s="14">
+        <v>26.68</v>
+      </c>
+      <c r="C281" s="15">
+        <v>-11.04</v>
+      </c>
+      <c r="D281" s="16">
+        <v>0</v>
+      </c>
+      <c r="E281" s="12"/>
+      <c r="F281" s="12"/>
+    </row>
+    <row r="282" s="12" customFormat="1">
+      <c r="A282" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B282" s="14">
+        <v>29.99</v>
+      </c>
+      <c r="C282" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D282" s="16">
+        <v>0</v>
+      </c>
+      <c r="E282" s="12"/>
+      <c r="F282" s="12"/>
+    </row>
+    <row r="283" ht="35" customHeight="1">
+      <c r="A283" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B283" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5577,18 +5691,18 @@
     <mergeCell ref="E4:E4"/>
     <mergeCell ref="E5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A283:D283"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" location="'Historique Cours'!A277" display="Se rendre en bas du document"/>
-    <hyperlink ref="B6" location="'Historique Cours'!A277" display="Se rendre en bas du document"/>
-    <hyperlink ref="C6" location="'Historique Cours'!A277" display="Se rendre en bas du document"/>
-    <hyperlink ref="D6" location="'Historique Cours'!A277" display="Se rendre en bas du document"/>
-    <hyperlink ref="E6" location="'Historique Cours'!A277" display="Se rendre en bas du document"/>
-    <hyperlink ref="A277" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="B277" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="C277" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="D277" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="A6" location="'Historique Cours'!A283" display="Se rendre en bas du document"/>
+    <hyperlink ref="B6" location="'Historique Cours'!A283" display="Se rendre en bas du document"/>
+    <hyperlink ref="C6" location="'Historique Cours'!A283" display="Se rendre en bas du document"/>
+    <hyperlink ref="D6" location="'Historique Cours'!A283" display="Se rendre en bas du document"/>
+    <hyperlink ref="E6" location="'Historique Cours'!A283" display="Se rendre en bas du document"/>
+    <hyperlink ref="A283" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="B283" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="C283" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="D283" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
